--- a/cities_list.xlsx
+++ b/cities_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bstavnitskaya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AX Academy (국비지원2)\중간프로젝트_planit\planit-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28AA4AB1-94F5-4945-B265-C3876FCA762D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F62C3F-EACC-444B-8619-632157394378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cities_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="580">
   <si>
     <t>name</t>
   </si>
@@ -1765,26 +1765,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1792,7 +1792,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1800,7 +1800,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1808,35 +1808,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1844,7 +1844,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1852,14 +1852,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1867,14 +1867,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1882,7 +1882,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1890,15 +1890,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2247,48 +2254,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2304,9 +2311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2344,7 +2351,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2450,7 +2457,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2592,23 +2599,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D372"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2650,7 +2657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2664,7 +2671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2678,7 +2685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2692,7 +2699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2706,7 +2713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2720,7 +2727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2734,7 +2741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2748,7 +2755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2762,7 +2769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2776,7 +2783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2790,7 +2797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2804,7 +2811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2818,7 +2825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2832,7 +2839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2846,7 +2853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2860,7 +2867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2874,7 +2881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2888,7 +2895,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2902,7 +2909,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2916,7 +2923,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2930,7 +2937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2944,7 +2951,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2958,7 +2965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -2986,7 +2993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -3000,7 +3007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -3014,7 +3021,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -3042,7 +3049,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -3056,7 +3063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -3070,7 +3077,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -3084,7 +3091,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -3098,7 +3105,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -3112,7 +3119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -3126,7 +3133,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -3140,7 +3147,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -3154,7 +3161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -3168,7 +3175,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -3182,7 +3189,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -3196,7 +3203,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -3210,7 +3217,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -3224,7 +3231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -3238,7 +3245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3252,7 +3259,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -3266,7 +3273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -3280,7 +3287,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -3294,7 +3301,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -3308,7 +3315,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -3322,7 +3329,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -3336,7 +3343,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -3350,7 +3357,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -3364,7 +3371,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -3378,7 +3385,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -3392,7 +3399,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -3406,7 +3413,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -3420,7 +3427,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -3434,7 +3441,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -3448,7 +3455,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -3462,7 +3469,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -3476,7 +3483,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -3490,7 +3497,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -3504,7 +3511,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -3518,7 +3525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -3532,7 +3539,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -3546,7 +3553,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>125</v>
       </c>
@@ -3560,7 +3567,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -3574,7 +3581,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -3588,7 +3595,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -3602,7 +3609,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -3616,7 +3623,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -3630,7 +3637,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -3644,7 +3651,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>138</v>
       </c>
@@ -3658,7 +3665,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -3672,7 +3679,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>141</v>
       </c>
@@ -3686,7 +3693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -3700,7 +3707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -3714,7 +3721,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>145</v>
       </c>
@@ -3728,7 +3735,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>147</v>
       </c>
@@ -3742,7 +3749,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -3756,7 +3763,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>150</v>
       </c>
@@ -3770,7 +3777,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>151</v>
       </c>
@@ -3784,7 +3791,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -3798,7 +3805,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -3812,7 +3819,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -3826,7 +3833,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>156</v>
       </c>
@@ -3840,7 +3847,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>157</v>
       </c>
@@ -3854,7 +3861,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>159</v>
       </c>
@@ -3868,7 +3875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>160</v>
       </c>
@@ -3882,7 +3889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -3896,7 +3903,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>163</v>
       </c>
@@ -3910,7 +3917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>164</v>
       </c>
@@ -3924,7 +3931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>165</v>
       </c>
@@ -3938,7 +3945,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>166</v>
       </c>
@@ -3952,7 +3959,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>168</v>
       </c>
@@ -3966,7 +3973,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>169</v>
       </c>
@@ -3980,7 +3987,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>170</v>
       </c>
@@ -3994,7 +4001,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>172</v>
       </c>
@@ -4008,7 +4015,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>173</v>
       </c>
@@ -4022,7 +4029,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>175</v>
       </c>
@@ -4036,7 +4043,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>177</v>
       </c>
@@ -4050,7 +4057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>178</v>
       </c>
@@ -4064,7 +4071,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>180</v>
       </c>
@@ -4078,7 +4085,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>181</v>
       </c>
@@ -4092,7 +4099,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>183</v>
       </c>
@@ -4106,7 +4113,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>185</v>
       </c>
@@ -4120,7 +4127,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>187</v>
       </c>
@@ -4134,7 +4141,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>188</v>
       </c>
@@ -4148,7 +4155,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>190</v>
       </c>
@@ -4162,7 +4169,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -4176,7 +4183,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>194</v>
       </c>
@@ -4190,7 +4197,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -4204,7 +4211,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>198</v>
       </c>
@@ -4218,7 +4225,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>200</v>
       </c>
@@ -4232,7 +4239,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>201</v>
       </c>
@@ -4246,7 +4253,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>202</v>
       </c>
@@ -4260,7 +4267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>203</v>
       </c>
@@ -4274,7 +4281,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>205</v>
       </c>
@@ -4288,7 +4295,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>206</v>
       </c>
@@ -4302,7 +4309,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>208</v>
       </c>
@@ -4316,7 +4323,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>210</v>
       </c>
@@ -4330,7 +4337,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>211</v>
       </c>
@@ -4344,7 +4351,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>213</v>
       </c>
@@ -4358,7 +4365,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>214</v>
       </c>
@@ -4372,7 +4379,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>215</v>
       </c>
@@ -4386,7 +4393,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>217</v>
       </c>
@@ -4400,7 +4407,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>219</v>
       </c>
@@ -4414,7 +4421,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>221</v>
       </c>
@@ -4428,7 +4435,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>223</v>
       </c>
@@ -4442,7 +4449,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>224</v>
       </c>
@@ -4456,7 +4463,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>225</v>
       </c>
@@ -4470,7 +4477,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>227</v>
       </c>
@@ -4484,7 +4491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>228</v>
       </c>
@@ -4498,7 +4505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>229</v>
       </c>
@@ -4512,3311 +4519,3299 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B137">
-        <v>68.373660000000001</v>
+        <v>3.90591</v>
       </c>
       <c r="C137">
-        <v>25.392420000000001</v>
+        <v>7.3775599999999999</v>
       </c>
       <c r="D137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>231</v>
+      </c>
+      <c r="B138">
+        <v>126.70515</v>
+      </c>
+      <c r="C138">
+        <v>37.45646</v>
+      </c>
+      <c r="D138" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>232</v>
+      </c>
+      <c r="B139">
+        <v>51.674619999999997</v>
+      </c>
+      <c r="C139">
+        <v>32.652459999999998</v>
+      </c>
+      <c r="D139" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>234</v>
+      </c>
+      <c r="B140">
+        <v>73.043289999999999</v>
+      </c>
+      <c r="C140">
+        <v>33.72148</v>
+      </c>
+      <c r="D140" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>230</v>
-      </c>
-      <c r="B138">
-        <v>3.90591</v>
-      </c>
-      <c r="C138">
-        <v>7.3775599999999999</v>
-      </c>
-      <c r="D138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>231</v>
-      </c>
-      <c r="B139">
-        <v>126.70515</v>
-      </c>
-      <c r="C139">
-        <v>37.45646</v>
-      </c>
-      <c r="D139" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>232</v>
-      </c>
-      <c r="B140">
-        <v>51.674619999999997</v>
-      </c>
-      <c r="C140">
-        <v>32.652459999999998</v>
-      </c>
-      <c r="D140" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B141">
-        <v>73.043289999999999</v>
+        <v>28.949660000000002</v>
       </c>
       <c r="C141">
-        <v>33.72148</v>
+        <v>41.013840000000002</v>
       </c>
       <c r="D141" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B142">
-        <v>28.949660000000002</v>
+        <v>27.138380000000002</v>
       </c>
       <c r="C142">
-        <v>41.013840000000002</v>
+        <v>38.412730000000003</v>
       </c>
       <c r="D142" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B143">
-        <v>27.138380000000002</v>
+        <v>75.787809999999993</v>
       </c>
       <c r="C143">
-        <v>38.412730000000003</v>
+        <v>26.919619999999998</v>
       </c>
       <c r="D143" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B144">
-        <v>75.787809999999993</v>
+        <v>106.84513</v>
       </c>
       <c r="C144">
-        <v>26.919619999999998</v>
+        <v>-6.21462</v>
       </c>
       <c r="D144" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>239</v>
+      </c>
+      <c r="B145">
+        <v>39.186239999999998</v>
+      </c>
+      <c r="C145">
+        <v>21.490120000000001</v>
+      </c>
+      <c r="D145" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>241</v>
+      </c>
+      <c r="B146">
+        <v>35.216329999999999</v>
+      </c>
+      <c r="C146">
+        <v>31.76904</v>
+      </c>
+      <c r="D146" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>243</v>
+      </c>
+      <c r="B147">
+        <v>28.04363</v>
+      </c>
+      <c r="C147">
+        <v>-26.202269999999999</v>
+      </c>
+      <c r="D147" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>244</v>
+      </c>
+      <c r="B148">
+        <v>-106.46084</v>
+      </c>
+      <c r="C148">
+        <v>31.72024</v>
+      </c>
+      <c r="D148" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>245</v>
+      </c>
+      <c r="B149">
+        <v>31.582470000000001</v>
+      </c>
+      <c r="C149">
+        <v>4.8516500000000002</v>
+      </c>
+      <c r="D149" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>247</v>
+      </c>
+      <c r="B150">
+        <v>69.172330000000002</v>
+      </c>
+      <c r="C150">
+        <v>34.528129999999997</v>
+      </c>
+      <c r="D150" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>249</v>
+      </c>
+      <c r="B151">
+        <v>7.43879</v>
+      </c>
+      <c r="C151">
+        <v>10.52641</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>250</v>
+      </c>
+      <c r="B152">
+        <v>32.582189999999997</v>
+      </c>
+      <c r="C152">
+        <v>0.31628000000000001</v>
+      </c>
+      <c r="D152" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>252</v>
+      </c>
+      <c r="B153">
+        <v>8.5167199999999994</v>
+      </c>
+      <c r="C153">
+        <v>12.000120000000001</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>253</v>
+      </c>
+      <c r="B154">
+        <v>80.34975</v>
+      </c>
+      <c r="C154">
+        <v>26.465229999999998</v>
+      </c>
+      <c r="D154" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>238</v>
-      </c>
-      <c r="B145">
-        <v>106.84513</v>
-      </c>
-      <c r="C145">
-        <v>-6.21462</v>
-      </c>
-      <c r="D145" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>254</v>
+      </c>
+      <c r="B155">
+        <v>120.31332999999999</v>
+      </c>
+      <c r="C155">
+        <v>22.61626</v>
+      </c>
+      <c r="D155" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>256</v>
+      </c>
+      <c r="B156">
+        <v>67.010400000000004</v>
+      </c>
+      <c r="C156">
+        <v>24.860800000000001</v>
+      </c>
+      <c r="D156" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>257</v>
+      </c>
+      <c r="B157">
+        <v>50.991549999999997</v>
+      </c>
+      <c r="C157">
+        <v>35.832659999999997</v>
+      </c>
+      <c r="D157" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>258</v>
+      </c>
+      <c r="B158">
+        <v>85.320599999999999</v>
+      </c>
+      <c r="C158">
+        <v>27.701689999999999</v>
+      </c>
+      <c r="D158" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>260</v>
+      </c>
+      <c r="B159">
+        <v>139.71722</v>
+      </c>
+      <c r="C159">
+        <v>35.520560000000003</v>
+      </c>
+      <c r="D159" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>261</v>
+      </c>
+      <c r="B160">
+        <v>36.252719999999997</v>
+      </c>
+      <c r="C160">
+        <v>49.980809999999998</v>
+      </c>
+      <c r="D160" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>263</v>
+      </c>
+      <c r="B161">
+        <v>32.532409999999999</v>
+      </c>
+      <c r="C161">
+        <v>15.551769999999999</v>
+      </c>
+      <c r="D161" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>265</v>
+      </c>
+      <c r="B162">
+        <v>89.564390000000003</v>
+      </c>
+      <c r="C162">
+        <v>22.80979</v>
+      </c>
+      <c r="D162" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>266</v>
+      </c>
+      <c r="B163">
+        <v>30.05885</v>
+      </c>
+      <c r="C163">
+        <v>-1.9499500000000001</v>
+      </c>
+      <c r="D163" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>268</v>
+      </c>
+      <c r="B164">
+        <v>-119.554</v>
+      </c>
+      <c r="C164">
+        <v>36.513800000000003</v>
+      </c>
+      <c r="D164" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>269</v>
+      </c>
+      <c r="B165">
+        <v>-76.793580000000006</v>
+      </c>
+      <c r="C165">
+        <v>17.997019999999999</v>
+      </c>
+      <c r="D165" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>271</v>
+      </c>
+      <c r="B166">
+        <v>-61.227420000000002</v>
+      </c>
+      <c r="C166">
+        <v>13.15527</v>
+      </c>
+      <c r="D166" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>273</v>
+      </c>
+      <c r="B167">
+        <v>15.31357</v>
+      </c>
+      <c r="C167">
+        <v>-4.3275800000000002</v>
+      </c>
+      <c r="D167" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>275</v>
+      </c>
+      <c r="B168">
+        <v>135.18299999999999</v>
+      </c>
+      <c r="C168">
+        <v>34.691299999999998</v>
+      </c>
+      <c r="D168" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>276</v>
+      </c>
+      <c r="B169">
+        <v>88.363039999999998</v>
+      </c>
+      <c r="C169">
+        <v>22.562629999999999</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>277</v>
+      </c>
+      <c r="B170">
+        <v>102.24333</v>
+      </c>
+      <c r="C170">
+        <v>6.1236100000000002</v>
+      </c>
+      <c r="D170" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>278</v>
+      </c>
+      <c r="B171">
+        <v>114.18333</v>
+      </c>
+      <c r="C171">
+        <v>22.316669999999998</v>
+      </c>
+      <c r="D171" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>279</v>
+      </c>
+      <c r="B172">
+        <v>101.68653</v>
+      </c>
+      <c r="C172">
+        <v>3.1412</v>
+      </c>
+      <c r="D172" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>280</v>
+      </c>
+      <c r="B173">
+        <v>-1.62443</v>
+      </c>
+      <c r="C173">
+        <v>6.6884800000000002</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>281</v>
+      </c>
+      <c r="B174">
+        <v>47.97833</v>
+      </c>
+      <c r="C174">
+        <v>29.369720000000001</v>
+      </c>
+      <c r="D174" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>282</v>
+      </c>
+      <c r="B175">
+        <v>30.523800000000001</v>
+      </c>
+      <c r="C175">
+        <v>50.454659999999997</v>
+      </c>
+      <c r="D175" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>283</v>
+      </c>
+      <c r="B176">
+        <v>135.75385</v>
+      </c>
+      <c r="C176">
+        <v>35.021070000000002</v>
+      </c>
+      <c r="D176" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>284</v>
+      </c>
+      <c r="B177">
+        <v>-68.150000000000006</v>
+      </c>
+      <c r="C177">
+        <v>-16.5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>286</v>
+      </c>
+      <c r="B178">
+        <v>3.3946700000000001</v>
+      </c>
+      <c r="C178">
+        <v>6.4540699999999998</v>
+      </c>
+      <c r="D178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>287</v>
+      </c>
+      <c r="B179">
+        <v>74.350710000000007</v>
+      </c>
+      <c r="C179">
+        <v>31.558</v>
+      </c>
+      <c r="D179" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>288</v>
+      </c>
+      <c r="B180">
+        <v>9.4535599999999995</v>
+      </c>
+      <c r="C180">
+        <v>0.39240999999999998</v>
+      </c>
+      <c r="D180" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>290</v>
+      </c>
+      <c r="B181">
+        <v>33.78725</v>
+      </c>
+      <c r="C181">
+        <v>-13.96692</v>
+      </c>
+      <c r="D181" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>292</v>
+      </c>
+      <c r="B182">
+        <v>-77.028239999999997</v>
+      </c>
+      <c r="C182">
+        <v>-12.04318</v>
+      </c>
+      <c r="D182" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>294</v>
+      </c>
+      <c r="B183">
+        <v>-9.1333300000000008</v>
+      </c>
+      <c r="C183">
+        <v>38.716670000000001</v>
+      </c>
+      <c r="D183" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>296</v>
+      </c>
+      <c r="B184">
+        <v>14.505129999999999</v>
+      </c>
+      <c r="C184">
+        <v>46.051079999999999</v>
+      </c>
+      <c r="D184" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>298</v>
+      </c>
+      <c r="B185">
+        <v>1.2215400000000001</v>
+      </c>
+      <c r="C185">
+        <v>6.1287399999999996</v>
+      </c>
+      <c r="D185" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>300</v>
+      </c>
+      <c r="B186">
+        <v>-0.12573999999999999</v>
+      </c>
+      <c r="C186">
+        <v>51.50853</v>
+      </c>
+      <c r="D186" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>302</v>
+      </c>
+      <c r="B187">
+        <v>-118.24368</v>
+      </c>
+      <c r="C187">
+        <v>34.052230000000002</v>
+      </c>
+      <c r="D187" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>303</v>
+      </c>
+      <c r="B188">
+        <v>13.23432</v>
+      </c>
+      <c r="C188">
+        <v>-8.8368199999999995</v>
+      </c>
+      <c r="D188" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>305</v>
+      </c>
+      <c r="B189">
+        <v>27.479379999999999</v>
+      </c>
+      <c r="C189">
+        <v>-11.66089</v>
+      </c>
+      <c r="D189" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>306</v>
+      </c>
+      <c r="B190">
+        <v>28.287130000000001</v>
+      </c>
+      <c r="C190">
+        <v>-15.406689999999999</v>
+      </c>
+      <c r="D190" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>308</v>
+      </c>
+      <c r="B191">
+        <v>6.13</v>
+      </c>
+      <c r="C191">
+        <v>49.611669999999997</v>
+      </c>
+      <c r="D191" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>309</v>
+      </c>
+      <c r="B192">
+        <v>113.54611</v>
+      </c>
+      <c r="C192">
+        <v>22.200559999999999</v>
+      </c>
+      <c r="D192" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>311</v>
+      </c>
+      <c r="B193">
+        <v>-3.7025600000000001</v>
+      </c>
+      <c r="C193">
+        <v>40.416499999999999</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>312</v>
+      </c>
+      <c r="B194">
+        <v>171.38027</v>
+      </c>
+      <c r="C194">
+        <v>7.0897100000000002</v>
+      </c>
+      <c r="D194" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>314</v>
+      </c>
+      <c r="B195">
+        <v>119.43194</v>
+      </c>
+      <c r="C195">
+        <v>-5.1486099999999997</v>
+      </c>
+      <c r="D195" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>239</v>
-      </c>
-      <c r="B146">
-        <v>39.186239999999998</v>
-      </c>
-      <c r="C146">
-        <v>21.490120000000001</v>
-      </c>
-      <c r="D146" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>241</v>
-      </c>
-      <c r="B147">
-        <v>35.216329999999999</v>
-      </c>
-      <c r="C147">
-        <v>31.76904</v>
-      </c>
-      <c r="D147" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>243</v>
-      </c>
-      <c r="B148">
-        <v>28.04363</v>
-      </c>
-      <c r="C148">
-        <v>-26.202269999999999</v>
-      </c>
-      <c r="D148" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>244</v>
-      </c>
-      <c r="B149">
-        <v>-106.46084</v>
-      </c>
-      <c r="C149">
-        <v>31.72024</v>
-      </c>
-      <c r="D149" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>245</v>
-      </c>
-      <c r="B150">
-        <v>31.582470000000001</v>
-      </c>
-      <c r="C150">
-        <v>4.8516500000000002</v>
-      </c>
-      <c r="D150" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>247</v>
-      </c>
-      <c r="B151">
-        <v>69.172330000000002</v>
-      </c>
-      <c r="C151">
-        <v>34.528129999999997</v>
-      </c>
-      <c r="D151" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>249</v>
-      </c>
-      <c r="B152">
-        <v>7.43879</v>
-      </c>
-      <c r="C152">
-        <v>10.52641</v>
-      </c>
-      <c r="D152" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>250</v>
-      </c>
-      <c r="B153">
-        <v>32.582189999999997</v>
-      </c>
-      <c r="C153">
-        <v>0.31628000000000001</v>
-      </c>
-      <c r="D153" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>252</v>
-      </c>
-      <c r="B154">
-        <v>8.5167199999999994</v>
-      </c>
-      <c r="C154">
-        <v>12.000120000000001</v>
-      </c>
-      <c r="D154" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>253</v>
-      </c>
-      <c r="B155">
-        <v>80.34975</v>
-      </c>
-      <c r="C155">
-        <v>26.465229999999998</v>
-      </c>
-      <c r="D155" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>254</v>
-      </c>
-      <c r="B156">
-        <v>120.31332999999999</v>
-      </c>
-      <c r="C156">
-        <v>22.61626</v>
-      </c>
-      <c r="D156" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>256</v>
-      </c>
-      <c r="B157">
-        <v>67.010400000000004</v>
-      </c>
-      <c r="C157">
-        <v>24.860800000000001</v>
-      </c>
-      <c r="D157" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>257</v>
-      </c>
-      <c r="B158">
-        <v>50.991549999999997</v>
-      </c>
-      <c r="C158">
-        <v>35.832659999999997</v>
-      </c>
-      <c r="D158" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>258</v>
-      </c>
-      <c r="B159">
-        <v>85.320599999999999</v>
-      </c>
-      <c r="C159">
-        <v>27.701689999999999</v>
-      </c>
-      <c r="D159" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>260</v>
-      </c>
-      <c r="B160">
-        <v>139.71722</v>
-      </c>
-      <c r="C160">
-        <v>35.520560000000003</v>
-      </c>
-      <c r="D160" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>261</v>
-      </c>
-      <c r="B161">
-        <v>36.252719999999997</v>
-      </c>
-      <c r="C161">
-        <v>49.980809999999998</v>
-      </c>
-      <c r="D161" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>263</v>
-      </c>
-      <c r="B162">
-        <v>32.532409999999999</v>
-      </c>
-      <c r="C162">
-        <v>15.551769999999999</v>
-      </c>
-      <c r="D162" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>265</v>
-      </c>
-      <c r="B163">
-        <v>89.564390000000003</v>
-      </c>
-      <c r="C163">
-        <v>22.80979</v>
-      </c>
-      <c r="D163" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>266</v>
-      </c>
-      <c r="B164">
-        <v>30.05885</v>
-      </c>
-      <c r="C164">
-        <v>-1.9499500000000001</v>
-      </c>
-      <c r="D164" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>268</v>
-      </c>
-      <c r="B165">
-        <v>-119.554</v>
-      </c>
-      <c r="C165">
-        <v>36.513800000000003</v>
-      </c>
-      <c r="D165" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>269</v>
-      </c>
-      <c r="B166">
-        <v>-76.793580000000006</v>
-      </c>
-      <c r="C166">
-        <v>17.997019999999999</v>
-      </c>
-      <c r="D166" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>271</v>
-      </c>
-      <c r="B167">
-        <v>-61.227420000000002</v>
-      </c>
-      <c r="C167">
-        <v>13.15527</v>
-      </c>
-      <c r="D167" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>273</v>
-      </c>
-      <c r="B168">
-        <v>15.31357</v>
-      </c>
-      <c r="C168">
-        <v>-4.3275800000000002</v>
-      </c>
-      <c r="D168" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>275</v>
-      </c>
-      <c r="B169">
-        <v>135.18299999999999</v>
-      </c>
-      <c r="C169">
-        <v>34.691299999999998</v>
-      </c>
-      <c r="D169" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>276</v>
-      </c>
-      <c r="B170">
-        <v>88.363039999999998</v>
-      </c>
-      <c r="C170">
-        <v>22.562629999999999</v>
-      </c>
-      <c r="D170" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>277</v>
-      </c>
-      <c r="B171">
-        <v>102.24333</v>
-      </c>
-      <c r="C171">
-        <v>6.1236100000000002</v>
-      </c>
-      <c r="D171" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>278</v>
-      </c>
-      <c r="B172">
-        <v>114.18333</v>
-      </c>
-      <c r="C172">
-        <v>22.316669999999998</v>
-      </c>
-      <c r="D172" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>279</v>
-      </c>
-      <c r="B173">
-        <v>101.68653</v>
-      </c>
-      <c r="C173">
-        <v>3.1412</v>
-      </c>
-      <c r="D173" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>280</v>
-      </c>
-      <c r="B174">
-        <v>-1.62443</v>
-      </c>
-      <c r="C174">
-        <v>6.6884800000000002</v>
-      </c>
-      <c r="D174" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>281</v>
-      </c>
-      <c r="B175">
-        <v>47.97833</v>
-      </c>
-      <c r="C175">
-        <v>29.369720000000001</v>
-      </c>
-      <c r="D175" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>282</v>
-      </c>
-      <c r="B176">
-        <v>30.523800000000001</v>
-      </c>
-      <c r="C176">
-        <v>50.454659999999997</v>
-      </c>
-      <c r="D176" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>283</v>
-      </c>
-      <c r="B177">
-        <v>135.75385</v>
-      </c>
-      <c r="C177">
-        <v>35.021070000000002</v>
-      </c>
-      <c r="D177" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>284</v>
-      </c>
-      <c r="B178">
-        <v>-68.150000000000006</v>
-      </c>
-      <c r="C178">
-        <v>-16.5</v>
-      </c>
-      <c r="D178" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>286</v>
-      </c>
-      <c r="B179">
-        <v>3.3946700000000001</v>
-      </c>
-      <c r="C179">
-        <v>6.4540699999999998</v>
-      </c>
-      <c r="D179" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>287</v>
-      </c>
-      <c r="B180">
-        <v>74.350710000000007</v>
-      </c>
-      <c r="C180">
-        <v>31.558</v>
-      </c>
-      <c r="D180" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>288</v>
-      </c>
-      <c r="B181">
-        <v>9.4535599999999995</v>
-      </c>
-      <c r="C181">
-        <v>0.39240999999999998</v>
-      </c>
-      <c r="D181" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>290</v>
-      </c>
-      <c r="B182">
-        <v>33.78725</v>
-      </c>
-      <c r="C182">
-        <v>-13.96692</v>
-      </c>
-      <c r="D182" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>292</v>
-      </c>
-      <c r="B183">
-        <v>-77.028239999999997</v>
-      </c>
-      <c r="C183">
-        <v>-12.04318</v>
-      </c>
-      <c r="D183" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>294</v>
-      </c>
-      <c r="B184">
-        <v>-9.1333300000000008</v>
-      </c>
-      <c r="C184">
-        <v>38.716670000000001</v>
-      </c>
-      <c r="D184" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>296</v>
-      </c>
-      <c r="B185">
-        <v>14.505129999999999</v>
-      </c>
-      <c r="C185">
-        <v>46.051079999999999</v>
-      </c>
-      <c r="D185" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>298</v>
-      </c>
-      <c r="B186">
-        <v>1.2215400000000001</v>
-      </c>
-      <c r="C186">
-        <v>6.1287399999999996</v>
-      </c>
-      <c r="D186" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>300</v>
-      </c>
-      <c r="B187">
-        <v>-0.12573999999999999</v>
-      </c>
-      <c r="C187">
-        <v>51.50853</v>
-      </c>
-      <c r="D187" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>302</v>
-      </c>
-      <c r="B188">
-        <v>-118.24368</v>
-      </c>
-      <c r="C188">
-        <v>34.052230000000002</v>
-      </c>
-      <c r="D188" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>303</v>
-      </c>
-      <c r="B189">
-        <v>13.23432</v>
-      </c>
-      <c r="C189">
-        <v>-8.8368199999999995</v>
-      </c>
-      <c r="D189" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>305</v>
-      </c>
-      <c r="B190">
-        <v>27.479379999999999</v>
-      </c>
-      <c r="C190">
-        <v>-11.66089</v>
-      </c>
-      <c r="D190" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>306</v>
-      </c>
-      <c r="B191">
-        <v>28.287130000000001</v>
-      </c>
-      <c r="C191">
-        <v>-15.406689999999999</v>
-      </c>
-      <c r="D191" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>308</v>
-      </c>
-      <c r="B192">
-        <v>6.13</v>
-      </c>
-      <c r="C192">
-        <v>49.611669999999997</v>
-      </c>
-      <c r="D192" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>309</v>
-      </c>
-      <c r="B193">
-        <v>113.54611</v>
-      </c>
-      <c r="C193">
-        <v>22.200559999999999</v>
-      </c>
-      <c r="D193" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>311</v>
-      </c>
-      <c r="B194">
-        <v>-3.7025600000000001</v>
-      </c>
-      <c r="C194">
-        <v>40.416499999999999</v>
-      </c>
-      <c r="D194" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>312</v>
-      </c>
-      <c r="B195">
-        <v>171.38027</v>
-      </c>
-      <c r="C195">
-        <v>7.0897100000000002</v>
-      </c>
-      <c r="D195" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B196">
-        <v>119.43194</v>
+        <v>8.7816600000000005</v>
       </c>
       <c r="C196">
-        <v>-5.1486099999999997</v>
+        <v>3.7557800000000001</v>
       </c>
       <c r="D196" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B197">
-        <v>8.7816600000000005</v>
+        <v>73.509159999999994</v>
       </c>
       <c r="C197">
-        <v>3.7557800000000001</v>
+        <v>4.1752099999999999</v>
       </c>
       <c r="D197" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B198">
-        <v>73.509159999999994</v>
+        <v>45.22878</v>
       </c>
       <c r="C198">
-        <v>4.1752099999999999</v>
+        <v>-12.78234</v>
       </c>
       <c r="D198" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B199">
-        <v>45.22878</v>
+        <v>-86.250399999999999</v>
       </c>
       <c r="C199">
-        <v>-12.78234</v>
+        <v>12.132820000000001</v>
       </c>
       <c r="D199" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B200">
-        <v>-86.250399999999999</v>
+        <v>50.585650000000001</v>
       </c>
       <c r="C200">
-        <v>12.132820000000001</v>
+        <v>26.227869999999999</v>
       </c>
       <c r="D200" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B201">
-        <v>50.585650000000001</v>
+        <v>-60.024999999999999</v>
       </c>
       <c r="C201">
-        <v>26.227869999999999</v>
+        <v>-3.1019399999999999</v>
       </c>
       <c r="D201" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B202">
-        <v>-60.024999999999999</v>
+        <v>120.98220000000001</v>
       </c>
       <c r="C202">
-        <v>-3.1019399999999999</v>
+        <v>14.604200000000001</v>
       </c>
       <c r="D202" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B203">
-        <v>120.98220000000001</v>
+        <v>32.583219999999997</v>
       </c>
       <c r="C203">
-        <v>14.604200000000001</v>
+        <v>-25.965530000000001</v>
       </c>
       <c r="D203" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B204">
-        <v>32.583219999999997</v>
+        <v>-71.612449999999995</v>
       </c>
       <c r="C204">
-        <v>-25.965530000000001</v>
+        <v>10.66663</v>
       </c>
       <c r="D204" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B205">
-        <v>-71.612449999999995</v>
+        <v>-67.591130000000007</v>
       </c>
       <c r="C205">
-        <v>10.66663</v>
+        <v>10.23535</v>
       </c>
       <c r="D205" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B206">
-        <v>-67.591130000000007</v>
+        <v>19.934809999999999</v>
       </c>
       <c r="C206">
-        <v>10.23535</v>
+        <v>60.097259999999999</v>
       </c>
       <c r="D206" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B207">
-        <v>19.934809999999999</v>
+        <v>-63.083019999999998</v>
       </c>
       <c r="C207">
-        <v>60.097259999999999</v>
+        <v>18.068190000000001</v>
       </c>
       <c r="D207" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B208">
-        <v>-63.083019999999998</v>
+        <v>27.483329999999999</v>
       </c>
       <c r="C208">
-        <v>18.068190000000001</v>
+        <v>-29.316669999999998</v>
       </c>
       <c r="D208" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B209">
-        <v>27.483329999999999</v>
+        <v>59.567959999999999</v>
       </c>
       <c r="C209">
-        <v>-29.316669999999998</v>
+        <v>36.31559</v>
       </c>
       <c r="D209" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B210">
-        <v>59.567959999999999</v>
+        <v>31.133330000000001</v>
       </c>
       <c r="C210">
-        <v>36.31559</v>
+        <v>-26.316669999999998</v>
       </c>
       <c r="D210" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B211">
-        <v>31.133330000000001</v>
+        <v>39.825629999999997</v>
       </c>
       <c r="C211">
-        <v>-26.316669999999998</v>
+        <v>21.426639999999999</v>
       </c>
       <c r="D211" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B212">
-        <v>39.825629999999997</v>
+        <v>98.666669999999996</v>
       </c>
       <c r="C212">
-        <v>21.426639999999999</v>
+        <v>3.5833300000000001</v>
       </c>
       <c r="D212" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>342</v>
+      </c>
+      <c r="B213">
+        <v>-75.563590000000005</v>
+      </c>
+      <c r="C213">
+        <v>6.2518399999999996</v>
+      </c>
+      <c r="D213" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>343</v>
+      </c>
+      <c r="B214">
+        <v>39.614170000000001</v>
+      </c>
+      <c r="C214">
+        <v>24.468610000000002</v>
+      </c>
+      <c r="D214" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>341</v>
-      </c>
-      <c r="B213">
-        <v>98.666669999999996</v>
-      </c>
-      <c r="C213">
-        <v>3.5833300000000001</v>
-      </c>
-      <c r="D213" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>342</v>
-      </c>
-      <c r="B214">
-        <v>-75.563590000000005</v>
-      </c>
-      <c r="C214">
-        <v>6.2518399999999996</v>
-      </c>
-      <c r="D214" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B215">
-        <v>39.614170000000001</v>
+        <v>144.96332000000001</v>
       </c>
       <c r="C215">
-        <v>24.468610000000002</v>
+        <v>-37.814</v>
       </c>
       <c r="D215" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B216">
-        <v>144.96332000000001</v>
+        <v>-99.127660000000006</v>
       </c>
       <c r="C216">
-        <v>-37.814</v>
+        <v>19.428470000000001</v>
       </c>
       <c r="D216" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B217">
-        <v>-99.127660000000006</v>
+        <v>-80.193659999999994</v>
       </c>
       <c r="C217">
-        <v>19.428470000000001</v>
+        <v>25.774270000000001</v>
       </c>
       <c r="D217" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B218">
-        <v>-80.193659999999994</v>
+        <v>27.566669999999998</v>
       </c>
       <c r="C218">
-        <v>25.774270000000001</v>
+        <v>53.9</v>
       </c>
       <c r="D218" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B219">
-        <v>27.566669999999998</v>
+        <v>45.34375</v>
       </c>
       <c r="C219">
-        <v>53.9</v>
+        <v>2.0371100000000002</v>
       </c>
       <c r="D219" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B220">
-        <v>45.34375</v>
+        <v>7.4166699999999999</v>
       </c>
       <c r="C220">
-        <v>2.0371100000000002</v>
+        <v>43.733330000000002</v>
       </c>
       <c r="D220" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B221">
-        <v>7.4166699999999999</v>
+        <v>-10.796900000000001</v>
       </c>
       <c r="C221">
-        <v>43.733330000000002</v>
+        <v>6.3005399999999998</v>
       </c>
       <c r="D221" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B222">
-        <v>-10.796900000000001</v>
+        <v>-56.188160000000003</v>
       </c>
       <c r="C222">
-        <v>6.3005399999999998</v>
+        <v>-34.903280000000002</v>
       </c>
       <c r="D222" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B223">
-        <v>-56.188160000000003</v>
+        <v>-73.587810000000005</v>
       </c>
       <c r="C223">
-        <v>-34.903280000000002</v>
+        <v>45.508839999999999</v>
       </c>
       <c r="D223" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B224">
-        <v>-73.587810000000005</v>
+        <v>43.25506</v>
       </c>
       <c r="C224">
-        <v>45.508839999999999</v>
+        <v>-11.702159999999999</v>
       </c>
       <c r="D224" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B225">
-        <v>43.25506</v>
+        <v>37.615560000000002</v>
       </c>
       <c r="C225">
-        <v>-11.702159999999999</v>
+        <v>55.752220000000001</v>
       </c>
       <c r="D225" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B226">
-        <v>37.615560000000002</v>
+        <v>43.11889</v>
       </c>
       <c r="C226">
-        <v>55.752220000000001</v>
+        <v>36.335000000000001</v>
       </c>
       <c r="D226" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B227">
-        <v>43.11889</v>
+        <v>71.47824</v>
       </c>
       <c r="C227">
-        <v>36.335000000000001</v>
+        <v>30.19679</v>
       </c>
       <c r="D227" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B228">
-        <v>71.47824</v>
+        <v>72.88261</v>
       </c>
       <c r="C228">
-        <v>30.19679</v>
+        <v>19.07283</v>
       </c>
       <c r="D228" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B229">
-        <v>72.88261</v>
+        <v>58.407780000000002</v>
       </c>
       <c r="C229">
-        <v>19.07283</v>
+        <v>23.584129999999998</v>
       </c>
       <c r="D229" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B230">
-        <v>58.407780000000002</v>
+        <v>15.0444</v>
       </c>
       <c r="C230">
-        <v>23.584129999999998</v>
+        <v>12.106719999999999</v>
       </c>
       <c r="D230" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B231">
-        <v>15.0444</v>
+        <v>136.90640999999999</v>
       </c>
       <c r="C231">
-        <v>12.106719999999999</v>
+        <v>35.181469999999997</v>
       </c>
       <c r="D231" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B232">
-        <v>136.90640999999999</v>
+        <v>36.816670000000002</v>
       </c>
       <c r="C232">
-        <v>35.181469999999997</v>
+        <v>-1.2833300000000001</v>
       </c>
       <c r="D232" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B233">
-        <v>36.816670000000002</v>
+        <v>106.08472999999999</v>
       </c>
       <c r="C233">
-        <v>-1.2833300000000001</v>
+        <v>30.795079999999999</v>
       </c>
       <c r="D233" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B234">
-        <v>106.08472999999999</v>
+        <v>118.77778000000001</v>
       </c>
       <c r="C234">
-        <v>30.795079999999999</v>
+        <v>32.061669999999999</v>
       </c>
       <c r="D234" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B235">
-        <v>118.77778000000001</v>
+        <v>-77.343059999999994</v>
       </c>
       <c r="C235">
-        <v>32.061669999999999</v>
+        <v>25.058229999999998</v>
       </c>
       <c r="D235" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B236">
-        <v>-77.343059999999994</v>
+        <v>96.129720000000006</v>
       </c>
       <c r="C236">
-        <v>25.058229999999998</v>
+        <v>19.745000000000001</v>
       </c>
       <c r="D236" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B237">
-        <v>96.129720000000006</v>
+        <v>-74.005970000000005</v>
       </c>
       <c r="C237">
-        <v>19.745000000000001</v>
+        <v>40.714269999999999</v>
       </c>
       <c r="D237" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B238">
-        <v>-74.005970000000005</v>
+        <v>2.1097999999999999</v>
       </c>
       <c r="C238">
-        <v>40.714269999999999</v>
+        <v>13.51366</v>
       </c>
       <c r="D238" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>381</v>
+      </c>
+      <c r="B239">
+        <v>33.364199999999997</v>
+      </c>
+      <c r="C239">
+        <v>35.175310000000003</v>
+      </c>
+      <c r="D239" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>383</v>
+      </c>
+      <c r="B240">
+        <v>-15.9785</v>
+      </c>
+      <c r="C240">
+        <v>18.085809999999999</v>
+      </c>
+      <c r="D240" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>385</v>
+      </c>
+      <c r="B241">
+        <v>166.44883999999999</v>
+      </c>
+      <c r="C241">
+        <v>-22.274069999999998</v>
+      </c>
+      <c r="D241" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>387</v>
+      </c>
+      <c r="B242">
+        <v>82.934600000000003</v>
+      </c>
+      <c r="C242">
+        <v>55.041499999999999</v>
+      </c>
+      <c r="D242" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>388</v>
+      </c>
+      <c r="B243">
+        <v>-175.20179999999999</v>
+      </c>
+      <c r="C243">
+        <v>-21.139379999999999</v>
+      </c>
+      <c r="D243" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>390</v>
+      </c>
+      <c r="B244">
+        <v>71.445980000000006</v>
+      </c>
+      <c r="C244">
+        <v>51.180100000000003</v>
+      </c>
+      <c r="D244" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>391</v>
+      </c>
+      <c r="B245">
+        <v>-51.72157</v>
+      </c>
+      <c r="C245">
+        <v>64.18347</v>
+      </c>
+      <c r="D245" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>393</v>
+      </c>
+      <c r="B246">
+        <v>-70.027029999999996</v>
+      </c>
+      <c r="C246">
+        <v>12.52398</v>
+      </c>
+      <c r="D246" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>395</v>
+      </c>
+      <c r="B247">
+        <v>135.50218000000001</v>
+      </c>
+      <c r="C247">
+        <v>34.693739999999998</v>
+      </c>
+      <c r="D247" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>396</v>
+      </c>
+      <c r="B248">
+        <v>10.746090000000001</v>
+      </c>
+      <c r="C248">
+        <v>59.912730000000003</v>
+      </c>
+      <c r="D248" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>398</v>
+      </c>
+      <c r="B249">
+        <v>-75.698120000000003</v>
+      </c>
+      <c r="C249">
+        <v>45.411169999999998</v>
+      </c>
+      <c r="D249" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>399</v>
+      </c>
+      <c r="B250">
+        <v>-1.5338799999999999</v>
+      </c>
+      <c r="C250">
+        <v>12.36566</v>
+      </c>
+      <c r="D250" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>401</v>
+      </c>
+      <c r="B251">
+        <v>-170.70249999999999</v>
+      </c>
+      <c r="C251">
+        <v>-14.27806</v>
+      </c>
+      <c r="D251" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>403</v>
+      </c>
+      <c r="B252">
+        <v>104.7458</v>
+      </c>
+      <c r="C252">
+        <v>-2.9167299999999998</v>
+      </c>
+      <c r="D252" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>404</v>
+      </c>
+      <c r="B253">
+        <v>-122.14302000000001</v>
+      </c>
+      <c r="C253">
+        <v>37.441879999999998</v>
+      </c>
+      <c r="D253" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>379</v>
-      </c>
-      <c r="B239">
-        <v>2.1097999999999999</v>
-      </c>
-      <c r="C239">
-        <v>13.51366</v>
-      </c>
-      <c r="D239" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>381</v>
-      </c>
-      <c r="B240">
-        <v>33.364199999999997</v>
-      </c>
-      <c r="C240">
-        <v>35.175310000000003</v>
-      </c>
-      <c r="D240" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>383</v>
-      </c>
-      <c r="B241">
-        <v>-15.9785</v>
-      </c>
-      <c r="C241">
-        <v>18.085809999999999</v>
-      </c>
-      <c r="D241" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>385</v>
-      </c>
-      <c r="B242">
-        <v>166.44883999999999</v>
-      </c>
-      <c r="C242">
-        <v>-22.274069999999998</v>
-      </c>
-      <c r="D242" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>387</v>
-      </c>
-      <c r="B243">
-        <v>82.934600000000003</v>
-      </c>
-      <c r="C243">
-        <v>55.041499999999999</v>
-      </c>
-      <c r="D243" t="s">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>405</v>
+      </c>
+      <c r="B254">
+        <v>-79.519729999999996</v>
+      </c>
+      <c r="C254">
+        <v>8.9936000000000007</v>
+      </c>
+      <c r="D254" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>406</v>
+      </c>
+      <c r="B255">
+        <v>-149.56649999999999</v>
+      </c>
+      <c r="C255">
+        <v>-17.537330000000001</v>
+      </c>
+      <c r="D255" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>408</v>
+      </c>
+      <c r="B256">
+        <v>-55.166820000000001</v>
+      </c>
+      <c r="C256">
+        <v>5.8663800000000004</v>
+      </c>
+      <c r="D256" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>410</v>
+      </c>
+      <c r="B257">
+        <v>2.3488000000000002</v>
+      </c>
+      <c r="C257">
+        <v>48.853409999999997</v>
+      </c>
+      <c r="D257" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>412</v>
+      </c>
+      <c r="B258">
+        <v>115.8614</v>
+      </c>
+      <c r="C258">
+        <v>-31.95224</v>
+      </c>
+      <c r="D258" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>413</v>
+      </c>
+      <c r="B259">
+        <v>-75.163790000000006</v>
+      </c>
+      <c r="C259">
+        <v>39.952330000000003</v>
+      </c>
+      <c r="D259" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>414</v>
+      </c>
+      <c r="B260">
+        <v>104.91601</v>
+      </c>
+      <c r="C260">
+        <v>11.56245</v>
+      </c>
+      <c r="D260" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>416</v>
+      </c>
+      <c r="B261">
+        <v>-112.07404</v>
+      </c>
+      <c r="C261">
+        <v>33.44838</v>
+      </c>
+      <c r="D261" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>417</v>
+      </c>
+      <c r="B262">
+        <v>19.26361</v>
+      </c>
+      <c r="C262">
+        <v>42.441110000000002</v>
+      </c>
+      <c r="D262" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>419</v>
+      </c>
+      <c r="B263">
+        <v>57.498890000000003</v>
+      </c>
+      <c r="C263">
+        <v>-20.161940000000001</v>
+      </c>
+      <c r="D263" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>421</v>
+      </c>
+      <c r="B264">
+        <v>147.15089</v>
+      </c>
+      <c r="C264">
+        <v>-9.4772300000000005</v>
+      </c>
+      <c r="D264" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>423</v>
+      </c>
+      <c r="B265">
+        <v>-61.518889999999999</v>
+      </c>
+      <c r="C265">
+        <v>10.666679999999999</v>
+      </c>
+      <c r="D265" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>425</v>
+      </c>
+      <c r="B266">
+        <v>168.31366</v>
+      </c>
+      <c r="C266">
+        <v>-17.73648</v>
+      </c>
+      <c r="D266" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>427</v>
+      </c>
+      <c r="B267">
+        <v>-72.338809999999995</v>
+      </c>
+      <c r="C267">
+        <v>18.543489999999998</v>
+      </c>
+      <c r="D267" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>429</v>
+      </c>
+      <c r="B268">
+        <v>-51.23019</v>
+      </c>
+      <c r="C268">
+        <v>-30.032830000000001</v>
+      </c>
+      <c r="D268" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>430</v>
+      </c>
+      <c r="B269">
+        <v>2.6035900000000001</v>
+      </c>
+      <c r="C269">
+        <v>6.4964599999999999</v>
+      </c>
+      <c r="D269" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>432</v>
+      </c>
+      <c r="B270">
+        <v>14.42076</v>
+      </c>
+      <c r="C270">
+        <v>50.088039999999999</v>
+      </c>
+      <c r="D270" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>434</v>
+      </c>
+      <c r="B271">
+        <v>-23.512540000000001</v>
+      </c>
+      <c r="C271">
+        <v>14.931520000000001</v>
+      </c>
+      <c r="D271" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>436</v>
+      </c>
+      <c r="B272">
+        <v>28.187830000000002</v>
+      </c>
+      <c r="C272">
+        <v>-25.744859999999999</v>
+      </c>
+      <c r="D272" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>437</v>
+      </c>
+      <c r="B273">
+        <v>21.166879999999999</v>
+      </c>
+      <c r="C273">
+        <v>42.672719999999998</v>
+      </c>
+      <c r="D273" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>439</v>
+      </c>
+      <c r="B274">
+        <v>-98.203460000000007</v>
+      </c>
+      <c r="C274">
+        <v>19.037929999999999</v>
+      </c>
+      <c r="D274" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>440</v>
+      </c>
+      <c r="B275">
+        <v>73.855350000000001</v>
+      </c>
+      <c r="C275">
+        <v>18.519570000000002</v>
+      </c>
+      <c r="D275" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>441</v>
+      </c>
+      <c r="B276">
+        <v>125.75432000000001</v>
+      </c>
+      <c r="C276">
+        <v>39.033850000000001</v>
+      </c>
+      <c r="D276" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>443</v>
+      </c>
+      <c r="B277">
+        <v>121.0509</v>
+      </c>
+      <c r="C277">
+        <v>14.6488</v>
+      </c>
+      <c r="D277" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>444</v>
+      </c>
+      <c r="B278">
+        <v>-78.524950000000004</v>
+      </c>
+      <c r="C278">
+        <v>-0.22985</v>
+      </c>
+      <c r="D278" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>445</v>
+      </c>
+      <c r="B279">
+        <v>-6.8325500000000003</v>
+      </c>
+      <c r="C279">
+        <v>34.013249999999999</v>
+      </c>
+      <c r="D279" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>446</v>
+      </c>
+      <c r="B280">
+        <v>73.047899999999998</v>
+      </c>
+      <c r="C280">
+        <v>33.597329999999999</v>
+      </c>
+      <c r="D280" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>447</v>
+      </c>
+      <c r="B281">
+        <v>-34.88111</v>
+      </c>
+      <c r="C281">
+        <v>-8.0538900000000009</v>
+      </c>
+      <c r="D281" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>448</v>
+      </c>
+      <c r="B282">
+        <v>-21.895409999999998</v>
+      </c>
+      <c r="C282">
+        <v>64.135480000000001</v>
+      </c>
+      <c r="D282" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>450</v>
+      </c>
+      <c r="B283">
+        <v>24.105889999999999</v>
+      </c>
+      <c r="C283">
+        <v>56.945999999999998</v>
+      </c>
+      <c r="D283" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>452</v>
+      </c>
+      <c r="B284">
+        <v>-43.182229999999997</v>
+      </c>
+      <c r="C284">
+        <v>-22.906420000000001</v>
+      </c>
+      <c r="D284" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>453</v>
+      </c>
+      <c r="B285">
+        <v>46.721850000000003</v>
+      </c>
+      <c r="C285">
+        <v>24.687729999999998</v>
+      </c>
+      <c r="D285" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>454</v>
+      </c>
+      <c r="B286">
+        <v>-64.62079</v>
+      </c>
+      <c r="C286">
+        <v>18.426929999999999</v>
+      </c>
+      <c r="D286" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>456</v>
+      </c>
+      <c r="B287">
+        <v>12.511329999999999</v>
+      </c>
+      <c r="C287">
+        <v>41.891930000000002</v>
+      </c>
+      <c r="D287" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>458</v>
+      </c>
+      <c r="B288">
+        <v>-61.388080000000002</v>
+      </c>
+      <c r="C288">
+        <v>15.301740000000001</v>
+      </c>
+      <c r="D288" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>460</v>
+      </c>
+      <c r="B289">
+        <v>-61.75226</v>
+      </c>
+      <c r="C289">
+        <v>12.05288</v>
+      </c>
+      <c r="D289" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>462</v>
+      </c>
+      <c r="B290">
+        <v>-2.1049099999999998</v>
+      </c>
+      <c r="C290">
+        <v>49.188040000000001</v>
+      </c>
+      <c r="D290" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>464</v>
+      </c>
+      <c r="B291">
+        <v>-61.843290000000003</v>
+      </c>
+      <c r="C291">
+        <v>17.12096</v>
+      </c>
+      <c r="D291" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>466</v>
+      </c>
+      <c r="B292">
+        <v>-2.5352700000000001</v>
+      </c>
+      <c r="C292">
+        <v>49.459809999999997</v>
+      </c>
+      <c r="D292" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>468</v>
+      </c>
+      <c r="B293">
+        <v>30.314129999999999</v>
+      </c>
+      <c r="C293">
+        <v>59.938630000000003</v>
+      </c>
+      <c r="D293" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>388</v>
-      </c>
-      <c r="B244">
-        <v>-175.20179999999999</v>
-      </c>
-      <c r="C244">
-        <v>-21.139379999999999</v>
-      </c>
-      <c r="D244" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>390</v>
-      </c>
-      <c r="B245">
-        <v>71.445980000000006</v>
-      </c>
-      <c r="C245">
-        <v>51.180100000000003</v>
-      </c>
-      <c r="D245" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>391</v>
-      </c>
-      <c r="B246">
-        <v>-51.72157</v>
-      </c>
-      <c r="C246">
-        <v>64.18347</v>
-      </c>
-      <c r="D246" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>393</v>
-      </c>
-      <c r="B247">
-        <v>-70.027029999999996</v>
-      </c>
-      <c r="C247">
-        <v>12.52398</v>
-      </c>
-      <c r="D247" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>395</v>
-      </c>
-      <c r="B248">
-        <v>135.50218000000001</v>
-      </c>
-      <c r="C248">
-        <v>34.693739999999998</v>
-      </c>
-      <c r="D248" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>396</v>
-      </c>
-      <c r="B249">
-        <v>10.746090000000001</v>
-      </c>
-      <c r="C249">
-        <v>59.912730000000003</v>
-      </c>
-      <c r="D249" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>398</v>
-      </c>
-      <c r="B250">
-        <v>-75.698120000000003</v>
-      </c>
-      <c r="C250">
-        <v>45.411169999999998</v>
-      </c>
-      <c r="D250" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>399</v>
-      </c>
-      <c r="B251">
-        <v>-1.5338799999999999</v>
-      </c>
-      <c r="C251">
-        <v>12.36566</v>
-      </c>
-      <c r="D251" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>401</v>
-      </c>
-      <c r="B252">
-        <v>-170.70249999999999</v>
-      </c>
-      <c r="C252">
-        <v>-14.27806</v>
-      </c>
-      <c r="D252" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>403</v>
-      </c>
-      <c r="B253">
-        <v>104.7458</v>
-      </c>
-      <c r="C253">
-        <v>-2.9167299999999998</v>
-      </c>
-      <c r="D253" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>404</v>
-      </c>
-      <c r="B254">
-        <v>-122.14302000000001</v>
-      </c>
-      <c r="C254">
-        <v>37.441879999999998</v>
-      </c>
-      <c r="D254" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>405</v>
-      </c>
-      <c r="B255">
-        <v>-79.519729999999996</v>
-      </c>
-      <c r="C255">
-        <v>8.9936000000000007</v>
-      </c>
-      <c r="D255" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>406</v>
-      </c>
-      <c r="B256">
-        <v>-149.56649999999999</v>
-      </c>
-      <c r="C256">
-        <v>-17.537330000000001</v>
-      </c>
-      <c r="D256" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>408</v>
-      </c>
-      <c r="B257">
-        <v>-55.166820000000001</v>
-      </c>
-      <c r="C257">
-        <v>5.8663800000000004</v>
-      </c>
-      <c r="D257" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>410</v>
-      </c>
-      <c r="B258">
-        <v>2.3488000000000002</v>
-      </c>
-      <c r="C258">
-        <v>48.853409999999997</v>
-      </c>
-      <c r="D258" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>412</v>
-      </c>
-      <c r="B259">
-        <v>115.8614</v>
-      </c>
-      <c r="C259">
-        <v>-31.95224</v>
-      </c>
-      <c r="D259" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>413</v>
-      </c>
-      <c r="B260">
-        <v>-75.163790000000006</v>
-      </c>
-      <c r="C260">
-        <v>39.952330000000003</v>
-      </c>
-      <c r="D260" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>414</v>
-      </c>
-      <c r="B261">
-        <v>104.91601</v>
-      </c>
-      <c r="C261">
-        <v>11.56245</v>
-      </c>
-      <c r="D261" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>416</v>
-      </c>
-      <c r="B262">
-        <v>-112.07404</v>
-      </c>
-      <c r="C262">
-        <v>33.44838</v>
-      </c>
-      <c r="D262" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>417</v>
-      </c>
-      <c r="B263">
-        <v>19.26361</v>
-      </c>
-      <c r="C263">
-        <v>42.441110000000002</v>
-      </c>
-      <c r="D263" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>419</v>
-      </c>
-      <c r="B264">
-        <v>57.498890000000003</v>
-      </c>
-      <c r="C264">
-        <v>-20.161940000000001</v>
-      </c>
-      <c r="D264" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>421</v>
-      </c>
-      <c r="B265">
-        <v>147.15089</v>
-      </c>
-      <c r="C265">
-        <v>-9.4772300000000005</v>
-      </c>
-      <c r="D265" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>423</v>
-      </c>
-      <c r="B266">
-        <v>-61.518889999999999</v>
-      </c>
-      <c r="C266">
-        <v>10.666679999999999</v>
-      </c>
-      <c r="D266" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>425</v>
-      </c>
-      <c r="B267">
-        <v>168.31366</v>
-      </c>
-      <c r="C267">
-        <v>-17.73648</v>
-      </c>
-      <c r="D267" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>427</v>
-      </c>
-      <c r="B268">
-        <v>-72.338809999999995</v>
-      </c>
-      <c r="C268">
-        <v>18.543489999999998</v>
-      </c>
-      <c r="D268" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>429</v>
-      </c>
-      <c r="B269">
-        <v>-51.23019</v>
-      </c>
-      <c r="C269">
-        <v>-30.032830000000001</v>
-      </c>
-      <c r="D269" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>430</v>
-      </c>
-      <c r="B270">
-        <v>2.6035900000000001</v>
-      </c>
-      <c r="C270">
-        <v>6.4964599999999999</v>
-      </c>
-      <c r="D270" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>432</v>
-      </c>
-      <c r="B271">
-        <v>14.42076</v>
-      </c>
-      <c r="C271">
-        <v>50.088039999999999</v>
-      </c>
-      <c r="D271" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>434</v>
-      </c>
-      <c r="B272">
-        <v>-23.512540000000001</v>
-      </c>
-      <c r="C272">
-        <v>14.931520000000001</v>
-      </c>
-      <c r="D272" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>436</v>
-      </c>
-      <c r="B273">
-        <v>28.187830000000002</v>
-      </c>
-      <c r="C273">
-        <v>-25.744859999999999</v>
-      </c>
-      <c r="D273" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>437</v>
-      </c>
-      <c r="B274">
-        <v>21.166879999999999</v>
-      </c>
-      <c r="C274">
-        <v>42.672719999999998</v>
-      </c>
-      <c r="D274" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>439</v>
-      </c>
-      <c r="B275">
-        <v>-98.203460000000007</v>
-      </c>
-      <c r="C275">
-        <v>19.037929999999999</v>
-      </c>
-      <c r="D275" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>440</v>
-      </c>
-      <c r="B276">
-        <v>73.855350000000001</v>
-      </c>
-      <c r="C276">
-        <v>18.519570000000002</v>
-      </c>
-      <c r="D276" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>441</v>
-      </c>
-      <c r="B277">
-        <v>125.75432000000001</v>
-      </c>
-      <c r="C277">
-        <v>39.033850000000001</v>
-      </c>
-      <c r="D277" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>443</v>
-      </c>
-      <c r="B278">
-        <v>121.0509</v>
-      </c>
-      <c r="C278">
-        <v>14.6488</v>
-      </c>
-      <c r="D278" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>444</v>
-      </c>
-      <c r="B279">
-        <v>-78.524950000000004</v>
-      </c>
-      <c r="C279">
-        <v>-0.22985</v>
-      </c>
-      <c r="D279" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>445</v>
-      </c>
-      <c r="B280">
-        <v>-6.8325500000000003</v>
-      </c>
-      <c r="C280">
-        <v>34.013249999999999</v>
-      </c>
-      <c r="D280" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>446</v>
-      </c>
-      <c r="B281">
-        <v>73.047899999999998</v>
-      </c>
-      <c r="C281">
-        <v>33.597329999999999</v>
-      </c>
-      <c r="D281" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>447</v>
-      </c>
-      <c r="B282">
-        <v>-34.88111</v>
-      </c>
-      <c r="C282">
-        <v>-8.0538900000000009</v>
-      </c>
-      <c r="D282" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>448</v>
-      </c>
-      <c r="B283">
-        <v>-21.895409999999998</v>
-      </c>
-      <c r="C283">
-        <v>64.135480000000001</v>
-      </c>
-      <c r="D283" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>450</v>
-      </c>
-      <c r="B284">
-        <v>24.105889999999999</v>
-      </c>
-      <c r="C284">
-        <v>56.945999999999998</v>
-      </c>
-      <c r="D284" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>452</v>
-      </c>
-      <c r="B285">
-        <v>-43.182229999999997</v>
-      </c>
-      <c r="C285">
-        <v>-22.906420000000001</v>
-      </c>
-      <c r="D285" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>453</v>
-      </c>
-      <c r="B286">
-        <v>46.721850000000003</v>
-      </c>
-      <c r="C286">
-        <v>24.687729999999998</v>
-      </c>
-      <c r="D286" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>454</v>
-      </c>
-      <c r="B287">
-        <v>-64.62079</v>
-      </c>
-      <c r="C287">
-        <v>18.426929999999999</v>
-      </c>
-      <c r="D287" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>456</v>
-      </c>
-      <c r="B288">
-        <v>12.511329999999999</v>
-      </c>
-      <c r="C288">
-        <v>41.891930000000002</v>
-      </c>
-      <c r="D288" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>458</v>
-      </c>
-      <c r="B289">
-        <v>-61.388080000000002</v>
-      </c>
-      <c r="C289">
-        <v>15.301740000000001</v>
-      </c>
-      <c r="D289" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>460</v>
-      </c>
-      <c r="B290">
-        <v>-61.75226</v>
-      </c>
-      <c r="C290">
-        <v>12.05288</v>
-      </c>
-      <c r="D290" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>462</v>
-      </c>
-      <c r="B291">
-        <v>-2.1049099999999998</v>
-      </c>
-      <c r="C291">
-        <v>49.188040000000001</v>
-      </c>
-      <c r="D291" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>464</v>
-      </c>
-      <c r="B292">
-        <v>-61.843290000000003</v>
-      </c>
-      <c r="C292">
-        <v>17.12096</v>
-      </c>
-      <c r="D292" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>466</v>
-      </c>
-      <c r="B293">
-        <v>-2.5352700000000001</v>
-      </c>
-      <c r="C293">
-        <v>49.459809999999997</v>
-      </c>
-      <c r="D293" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B294">
-        <v>30.314129999999999</v>
+        <v>55.450400000000002</v>
       </c>
       <c r="C294">
-        <v>59.938630000000003</v>
+        <v>-20.88231</v>
       </c>
       <c r="D294" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B295">
-        <v>55.450400000000002</v>
+        <v>-56.177300000000002</v>
       </c>
       <c r="C295">
-        <v>-20.88231</v>
+        <v>46.779139999999998</v>
       </c>
       <c r="D295" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B296">
-        <v>-56.177300000000002</v>
+        <v>145.75450000000001</v>
       </c>
       <c r="C296">
-        <v>46.779139999999998</v>
+        <v>15.21233</v>
       </c>
       <c r="D296" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B297">
-        <v>145.75450000000001</v>
+        <v>-38.510829999999999</v>
       </c>
       <c r="C297">
-        <v>15.21233</v>
+        <v>-12.971109999999999</v>
       </c>
       <c r="D297" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B298">
-        <v>-38.510829999999999</v>
+        <v>-98.493629999999996</v>
       </c>
       <c r="C298">
-        <v>-12.971109999999999</v>
+        <v>29.424119999999998</v>
       </c>
       <c r="D298" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B299">
-        <v>-98.493629999999996</v>
+        <v>-117.16472</v>
       </c>
       <c r="C299">
-        <v>29.424119999999998</v>
+        <v>32.715710000000001</v>
       </c>
       <c r="D299" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B300">
-        <v>-117.16472</v>
+        <v>-122.41942</v>
       </c>
       <c r="C300">
-        <v>32.715710000000001</v>
+        <v>37.774929999999998</v>
       </c>
       <c r="D300" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B301">
-        <v>-122.41942</v>
+        <v>-84.083330000000004</v>
       </c>
       <c r="C301">
-        <v>37.774929999999998</v>
+        <v>9.9333299999999998</v>
       </c>
       <c r="D301" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B302">
-        <v>-84.083330000000004</v>
+        <v>-66.105720000000005</v>
       </c>
       <c r="C302">
-        <v>9.9333299999999998</v>
+        <v>18.466329999999999</v>
       </c>
       <c r="D302" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>480</v>
+      </c>
+      <c r="B303">
+        <v>12.446389999999999</v>
+      </c>
+      <c r="C303">
+        <v>43.936669999999999</v>
+      </c>
+      <c r="D303" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>479</v>
-      </c>
-      <c r="B303">
-        <v>-66.105720000000005</v>
-      </c>
-      <c r="C303">
-        <v>18.466329999999999</v>
-      </c>
-      <c r="D303" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B304">
-        <v>12.446389999999999</v>
+        <v>-89.187179999999998</v>
       </c>
       <c r="C304">
-        <v>43.936669999999999</v>
+        <v>13.689349999999999</v>
       </c>
       <c r="D304" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>483</v>
+      </c>
+      <c r="B305">
+        <v>44.206670000000003</v>
+      </c>
+      <c r="C305">
+        <v>15.35472</v>
+      </c>
+      <c r="D305" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>485</v>
+      </c>
+      <c r="B306">
+        <v>-63.181170000000002</v>
+      </c>
+      <c r="C306">
+        <v>-17.786290000000001</v>
+      </c>
+      <c r="D306" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>486</v>
+      </c>
+      <c r="B307">
+        <v>-70.648269999999997</v>
+      </c>
+      <c r="C307">
+        <v>-33.456940000000003</v>
+      </c>
+      <c r="D307" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>488</v>
+      </c>
+      <c r="B308">
+        <v>-69.892319999999998</v>
+      </c>
+      <c r="C308">
+        <v>18.47186</v>
+      </c>
+      <c r="D308" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>490</v>
+      </c>
+      <c r="B309">
+        <v>-46.636110000000002</v>
+      </c>
+      <c r="C309">
+        <v>-23.547499999999999</v>
+      </c>
+      <c r="D309" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>491</v>
+      </c>
+      <c r="B310">
+        <v>6.7273199999999997</v>
+      </c>
+      <c r="C310">
+        <v>0.33654000000000001</v>
+      </c>
+      <c r="D310" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>493</v>
+      </c>
+      <c r="B311">
+        <v>141.35</v>
+      </c>
+      <c r="C311">
+        <v>43.066670000000002</v>
+      </c>
+      <c r="D311" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>494</v>
+      </c>
+      <c r="B312">
+        <v>18.356439999999999</v>
+      </c>
+      <c r="C312">
+        <v>43.848640000000003</v>
+      </c>
+      <c r="D312" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>496</v>
+      </c>
+      <c r="B313">
+        <v>-122.33207</v>
+      </c>
+      <c r="C313">
+        <v>47.606209999999997</v>
+      </c>
+      <c r="D313" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>481</v>
-      </c>
-      <c r="B305">
-        <v>-89.187179999999998</v>
-      </c>
-      <c r="C305">
-        <v>13.689349999999999</v>
-      </c>
-      <c r="D305" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>483</v>
-      </c>
-      <c r="B306">
-        <v>44.206670000000003</v>
-      </c>
-      <c r="C306">
-        <v>15.35472</v>
-      </c>
-      <c r="D306" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>485</v>
-      </c>
-      <c r="B307">
-        <v>-63.181170000000002</v>
-      </c>
-      <c r="C307">
-        <v>-17.786290000000001</v>
-      </c>
-      <c r="D307" t="s">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>497</v>
+      </c>
+      <c r="B314">
+        <v>110.42083</v>
+      </c>
+      <c r="C314">
+        <v>-6.9930599999999998</v>
+      </c>
+      <c r="D314" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>498</v>
+      </c>
+      <c r="B315">
+        <v>126.97839999999999</v>
+      </c>
+      <c r="C315">
+        <v>37.566000000000003</v>
+      </c>
+      <c r="D315" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>499</v>
+      </c>
+      <c r="B316">
+        <v>121.45806</v>
+      </c>
+      <c r="C316">
+        <v>31.22222</v>
+      </c>
+      <c r="D316" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>500</v>
+      </c>
+      <c r="B317">
+        <v>55.412059999999997</v>
+      </c>
+      <c r="C317">
+        <v>25.33737</v>
+      </c>
+      <c r="D317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>501</v>
+      </c>
+      <c r="B318">
+        <v>114.06829999999999</v>
+      </c>
+      <c r="C318">
+        <v>22.545539999999999</v>
+      </c>
+      <c r="D318" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>502</v>
+      </c>
+      <c r="B319">
+        <v>103.85007</v>
+      </c>
+      <c r="C319">
+        <v>1.2896700000000001</v>
+      </c>
+      <c r="D319" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>503</v>
+      </c>
+      <c r="B320">
+        <v>21.43141</v>
+      </c>
+      <c r="C320">
+        <v>41.996459999999999</v>
+      </c>
+      <c r="D320" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>505</v>
+      </c>
+      <c r="B321">
+        <v>23.324149999999999</v>
+      </c>
+      <c r="C321">
+        <v>42.697510000000001</v>
+      </c>
+      <c r="D321" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>507</v>
+      </c>
+      <c r="B322">
+        <v>106.71789</v>
+      </c>
+      <c r="C322">
+        <v>-6.2886199999999999</v>
+      </c>
+      <c r="D322" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>508</v>
+      </c>
+      <c r="B323">
+        <v>27.85849</v>
+      </c>
+      <c r="C323">
+        <v>-26.267810000000001</v>
+      </c>
+      <c r="D323" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>509</v>
+      </c>
+      <c r="B324">
+        <v>18.068709999999999</v>
+      </c>
+      <c r="C324">
+        <v>59.32938</v>
+      </c>
+      <c r="D324" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>511</v>
+      </c>
+      <c r="B325">
+        <v>-65.262739999999994</v>
+      </c>
+      <c r="C325">
+        <v>-19.03332</v>
+      </c>
+      <c r="D325" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>486</v>
-      </c>
-      <c r="B308">
-        <v>-70.648269999999997</v>
-      </c>
-      <c r="C308">
-        <v>-33.456940000000003</v>
-      </c>
-      <c r="D308" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>488</v>
-      </c>
-      <c r="B309">
-        <v>-69.892319999999998</v>
-      </c>
-      <c r="C309">
-        <v>18.47186</v>
-      </c>
-      <c r="D309" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>490</v>
-      </c>
-      <c r="B310">
-        <v>-46.636110000000002</v>
-      </c>
-      <c r="C310">
-        <v>-23.547499999999999</v>
-      </c>
-      <c r="D310" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>491</v>
-      </c>
-      <c r="B311">
-        <v>6.7273199999999997</v>
-      </c>
-      <c r="C311">
-        <v>0.33654000000000001</v>
-      </c>
-      <c r="D311" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>493</v>
-      </c>
-      <c r="B312">
-        <v>141.35</v>
-      </c>
-      <c r="C312">
-        <v>43.066670000000002</v>
-      </c>
-      <c r="D312" t="s">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>512</v>
+      </c>
+      <c r="B326">
+        <v>112.75082999999999</v>
+      </c>
+      <c r="C326">
+        <v>-7.2491700000000003</v>
+      </c>
+      <c r="D326" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>513</v>
+      </c>
+      <c r="B327">
+        <v>72.83023</v>
+      </c>
+      <c r="C327">
+        <v>21.19594</v>
+      </c>
+      <c r="D327" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>514</v>
+      </c>
+      <c r="B328">
+        <v>178.44148999999999</v>
+      </c>
+      <c r="C328">
+        <v>-18.14161</v>
+      </c>
+      <c r="D328" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>516</v>
+      </c>
+      <c r="B329">
+        <v>151.20732000000001</v>
+      </c>
+      <c r="C329">
+        <v>-33.867849999999997</v>
+      </c>
+      <c r="D329" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>517</v>
+      </c>
+      <c r="B330">
+        <v>46.291899999999998</v>
+      </c>
+      <c r="C330">
+        <v>38.08</v>
+      </c>
+      <c r="D330" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>518</v>
+      </c>
+      <c r="B331">
+        <v>121.53185000000001</v>
+      </c>
+      <c r="C331">
+        <v>25.04776</v>
+      </c>
+      <c r="D331" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>519</v>
+      </c>
+      <c r="B332">
+        <v>24.753530000000001</v>
+      </c>
+      <c r="C332">
+        <v>59.436959999999999</v>
+      </c>
+      <c r="D332" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>521</v>
+      </c>
+      <c r="B333">
+        <v>106.63</v>
+      </c>
+      <c r="C333">
+        <v>-6.1780600000000003</v>
+      </c>
+      <c r="D333" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>522</v>
+      </c>
+      <c r="B334">
+        <v>172.97695999999999</v>
+      </c>
+      <c r="C334">
+        <v>1.3278000000000001</v>
+      </c>
+      <c r="D334" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>524</v>
+      </c>
+      <c r="B335">
+        <v>69.216269999999994</v>
+      </c>
+      <c r="C335">
+        <v>41.264650000000003</v>
+      </c>
+      <c r="D335" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>526</v>
+      </c>
+      <c r="B336">
+        <v>44.833680000000001</v>
+      </c>
+      <c r="C336">
+        <v>41.694110000000002</v>
+      </c>
+      <c r="D336" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>528</v>
+      </c>
+      <c r="B337">
+        <v>-87.206810000000004</v>
+      </c>
+      <c r="C337">
+        <v>14.081799999999999</v>
+      </c>
+      <c r="D337" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>530</v>
+      </c>
+      <c r="B338">
+        <v>51.421509999999998</v>
+      </c>
+      <c r="C338">
+        <v>35.694389999999999</v>
+      </c>
+      <c r="D338" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>531</v>
+      </c>
+      <c r="B339">
+        <v>34.780569999999997</v>
+      </c>
+      <c r="C339">
+        <v>32.080880000000001</v>
+      </c>
+      <c r="D339" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>532</v>
+      </c>
+      <c r="B340">
+        <v>89.641909999999996</v>
+      </c>
+      <c r="C340">
+        <v>27.466090000000001</v>
+      </c>
+      <c r="D340" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>534</v>
+      </c>
+      <c r="B341">
+        <v>117.17667</v>
+      </c>
+      <c r="C341">
+        <v>39.142220000000002</v>
+      </c>
+      <c r="D341" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>535</v>
+      </c>
+      <c r="B342">
+        <v>-117.00371</v>
+      </c>
+      <c r="C342">
+        <v>32.502699999999997</v>
+      </c>
+      <c r="D342" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>536</v>
+      </c>
+      <c r="B343">
+        <v>19.81889</v>
+      </c>
+      <c r="C343">
+        <v>41.327500000000001</v>
+      </c>
+      <c r="D343" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>538</v>
+      </c>
+      <c r="B344">
+        <v>139.69171</v>
+      </c>
+      <c r="C344">
+        <v>35.689500000000002</v>
+      </c>
+      <c r="D344" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>494</v>
-      </c>
-      <c r="B313">
-        <v>18.356439999999999</v>
-      </c>
-      <c r="C313">
-        <v>43.848640000000003</v>
-      </c>
-      <c r="D313" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>496</v>
-      </c>
-      <c r="B314">
-        <v>-122.33207</v>
-      </c>
-      <c r="C314">
-        <v>47.606209999999997</v>
-      </c>
-      <c r="D314" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>497</v>
-      </c>
-      <c r="B315">
-        <v>110.42083</v>
-      </c>
-      <c r="C315">
-        <v>-6.9930599999999998</v>
-      </c>
-      <c r="D315" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>498</v>
-      </c>
-      <c r="B316">
-        <v>126.97839999999999</v>
-      </c>
-      <c r="C316">
-        <v>37.566000000000003</v>
-      </c>
-      <c r="D316" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>499</v>
-      </c>
-      <c r="B317">
-        <v>121.45806</v>
-      </c>
-      <c r="C317">
-        <v>31.22222</v>
-      </c>
-      <c r="D317" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>500</v>
-      </c>
-      <c r="B318">
-        <v>55.412059999999997</v>
-      </c>
-      <c r="C318">
-        <v>25.33737</v>
-      </c>
-      <c r="D318" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>501</v>
-      </c>
-      <c r="B319">
-        <v>114.06829999999999</v>
-      </c>
-      <c r="C319">
-        <v>22.545539999999999</v>
-      </c>
-      <c r="D319" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>502</v>
-      </c>
-      <c r="B320">
-        <v>103.85007</v>
-      </c>
-      <c r="C320">
-        <v>1.2896700000000001</v>
-      </c>
-      <c r="D320" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>503</v>
-      </c>
-      <c r="B321">
-        <v>21.43141</v>
-      </c>
-      <c r="C321">
-        <v>41.996459999999999</v>
-      </c>
-      <c r="D321" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>505</v>
-      </c>
-      <c r="B322">
-        <v>23.324149999999999</v>
-      </c>
-      <c r="C322">
-        <v>42.697510000000001</v>
-      </c>
-      <c r="D322" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>507</v>
-      </c>
-      <c r="B323">
-        <v>106.71789</v>
-      </c>
-      <c r="C323">
-        <v>-6.2886199999999999</v>
-      </c>
-      <c r="D323" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>508</v>
-      </c>
-      <c r="B324">
-        <v>27.85849</v>
-      </c>
-      <c r="C324">
-        <v>-26.267810000000001</v>
-      </c>
-      <c r="D324" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>509</v>
-      </c>
-      <c r="B325">
-        <v>18.068709999999999</v>
-      </c>
-      <c r="C325">
-        <v>59.32938</v>
-      </c>
-      <c r="D325" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>511</v>
-      </c>
-      <c r="B326">
-        <v>-65.262739999999994</v>
-      </c>
-      <c r="C326">
-        <v>-19.03332</v>
-      </c>
-      <c r="D326" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>512</v>
-      </c>
-      <c r="B327">
-        <v>112.75082999999999</v>
-      </c>
-      <c r="C327">
-        <v>-7.2491700000000003</v>
-      </c>
-      <c r="D327" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>513</v>
-      </c>
-      <c r="B328">
-        <v>72.83023</v>
-      </c>
-      <c r="C328">
-        <v>21.19594</v>
-      </c>
-      <c r="D328" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>514</v>
-      </c>
-      <c r="B329">
-        <v>178.44148999999999</v>
-      </c>
-      <c r="C329">
-        <v>-18.14161</v>
-      </c>
-      <c r="D329" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>516</v>
-      </c>
-      <c r="B330">
-        <v>151.20732000000001</v>
-      </c>
-      <c r="C330">
-        <v>-33.867849999999997</v>
-      </c>
-      <c r="D330" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>517</v>
-      </c>
-      <c r="B331">
-        <v>46.291899999999998</v>
-      </c>
-      <c r="C331">
-        <v>38.08</v>
-      </c>
-      <c r="D331" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>518</v>
-      </c>
-      <c r="B332">
-        <v>121.53185000000001</v>
-      </c>
-      <c r="C332">
-        <v>25.04776</v>
-      </c>
-      <c r="D332" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>519</v>
-      </c>
-      <c r="B333">
-        <v>24.753530000000001</v>
-      </c>
-      <c r="C333">
-        <v>59.436959999999999</v>
-      </c>
-      <c r="D333" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>521</v>
-      </c>
-      <c r="B334">
-        <v>106.63</v>
-      </c>
-      <c r="C334">
-        <v>-6.1780600000000003</v>
-      </c>
-      <c r="D334" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>522</v>
-      </c>
-      <c r="B335">
-        <v>172.97695999999999</v>
-      </c>
-      <c r="C335">
-        <v>1.3278000000000001</v>
-      </c>
-      <c r="D335" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>524</v>
-      </c>
-      <c r="B336">
-        <v>69.216269999999994</v>
-      </c>
-      <c r="C336">
-        <v>41.264650000000003</v>
-      </c>
-      <c r="D336" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>526</v>
-      </c>
-      <c r="B337">
-        <v>44.833680000000001</v>
-      </c>
-      <c r="C337">
-        <v>41.694110000000002</v>
-      </c>
-      <c r="D337" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>528</v>
-      </c>
-      <c r="B338">
-        <v>-87.206810000000004</v>
-      </c>
-      <c r="C338">
-        <v>14.081799999999999</v>
-      </c>
-      <c r="D338" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>530</v>
-      </c>
-      <c r="B339">
-        <v>51.421509999999998</v>
-      </c>
-      <c r="C339">
-        <v>35.694389999999999</v>
-      </c>
-      <c r="D339" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>531</v>
-      </c>
-      <c r="B340">
-        <v>34.780569999999997</v>
-      </c>
-      <c r="C340">
-        <v>32.080880000000001</v>
-      </c>
-      <c r="D340" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>532</v>
-      </c>
-      <c r="B341">
-        <v>89.641909999999996</v>
-      </c>
-      <c r="C341">
-        <v>27.466090000000001</v>
-      </c>
-      <c r="D341" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>534</v>
-      </c>
-      <c r="B342">
-        <v>117.17667</v>
-      </c>
-      <c r="C342">
-        <v>39.142220000000002</v>
-      </c>
-      <c r="D342" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>535</v>
-      </c>
-      <c r="B343">
-        <v>-117.00371</v>
-      </c>
-      <c r="C343">
-        <v>32.502699999999997</v>
-      </c>
-      <c r="D343" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
-        <v>536</v>
-      </c>
-      <c r="B344">
-        <v>19.81889</v>
-      </c>
-      <c r="C344">
-        <v>41.327500000000001</v>
-      </c>
-      <c r="D344" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B345">
-        <v>139.69171</v>
+        <v>-79.416300000000007</v>
       </c>
       <c r="C345">
-        <v>35.689500000000002</v>
+        <v>43.700110000000002</v>
       </c>
       <c r="D345" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B346">
-        <v>-79.416300000000007</v>
+        <v>-6.7716399999999997</v>
       </c>
       <c r="C346">
-        <v>43.700110000000002</v>
+        <v>62.009729999999998</v>
       </c>
       <c r="D346" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>542</v>
+      </c>
+      <c r="B347">
+        <v>13.187329999999999</v>
+      </c>
+      <c r="C347">
+        <v>32.887430000000002</v>
+      </c>
+      <c r="D347" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>544</v>
+      </c>
+      <c r="B348">
+        <v>10.165789999999999</v>
+      </c>
+      <c r="C348">
+        <v>36.81897</v>
+      </c>
+      <c r="D348" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>546</v>
+      </c>
+      <c r="B349">
+        <v>106.88324</v>
+      </c>
+      <c r="C349">
+        <v>47.907710000000002</v>
+      </c>
+      <c r="D349" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>548</v>
+      </c>
+      <c r="B350">
+        <v>9.5215399999999999</v>
+      </c>
+      <c r="C350">
+        <v>47.141509999999997</v>
+      </c>
+      <c r="D350" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>550</v>
+      </c>
+      <c r="B351">
+        <v>-68.007649999999998</v>
+      </c>
+      <c r="C351">
+        <v>10.16202</v>
+      </c>
+      <c r="D351" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>551</v>
+      </c>
+      <c r="B352">
+        <v>14.514799999999999</v>
+      </c>
+      <c r="C352">
+        <v>35.899679999999996</v>
+      </c>
+      <c r="D352" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>553</v>
+      </c>
+      <c r="B353">
+        <v>-123.11933999999999</v>
+      </c>
+      <c r="C353">
+        <v>49.249659999999999</v>
+      </c>
+      <c r="D353" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>540</v>
-      </c>
-      <c r="B347">
-        <v>-6.7716399999999997</v>
-      </c>
-      <c r="C347">
-        <v>62.009729999999998</v>
-      </c>
-      <c r="D347" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
-        <v>542</v>
-      </c>
-      <c r="B348">
-        <v>13.187329999999999</v>
-      </c>
-      <c r="C348">
-        <v>32.887430000000002</v>
-      </c>
-      <c r="D348" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>544</v>
-      </c>
-      <c r="B349">
-        <v>10.165789999999999</v>
-      </c>
-      <c r="C349">
-        <v>36.81897</v>
-      </c>
-      <c r="D349" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
-        <v>546</v>
-      </c>
-      <c r="B350">
-        <v>106.88324</v>
-      </c>
-      <c r="C350">
-        <v>47.907710000000002</v>
-      </c>
-      <c r="D350" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>548</v>
-      </c>
-      <c r="B351">
-        <v>9.5215399999999999</v>
-      </c>
-      <c r="C351">
-        <v>47.141509999999997</v>
-      </c>
-      <c r="D351" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
-        <v>550</v>
-      </c>
-      <c r="B352">
-        <v>-68.007649999999998</v>
-      </c>
-      <c r="C352">
-        <v>10.16202</v>
-      </c>
-      <c r="D352" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>551</v>
-      </c>
-      <c r="B353">
-        <v>14.514799999999999</v>
-      </c>
-      <c r="C353">
-        <v>35.899679999999996</v>
-      </c>
-      <c r="D353" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B354">
-        <v>-123.11933999999999</v>
+        <v>55.455010000000001</v>
       </c>
       <c r="C354">
-        <v>49.249659999999999</v>
+        <v>-4.6200099999999997</v>
       </c>
       <c r="D354" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B355">
-        <v>55.455010000000001</v>
+        <v>16.37208</v>
       </c>
       <c r="C355">
-        <v>-4.6200099999999997</v>
+        <v>48.208489999999998</v>
       </c>
       <c r="D355" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B356">
-        <v>16.37208</v>
+        <v>102.6</v>
       </c>
       <c r="C356">
-        <v>48.208489999999998</v>
+        <v>17.966670000000001</v>
       </c>
       <c r="D356" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B357">
-        <v>102.6</v>
+        <v>25.279800000000002</v>
       </c>
       <c r="C357">
-        <v>17.966670000000001</v>
+        <v>54.689160000000001</v>
       </c>
       <c r="D357" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B358">
-        <v>25.279800000000002</v>
+        <v>21.011780000000002</v>
       </c>
       <c r="C358">
-        <v>54.689160000000001</v>
+        <v>52.229770000000002</v>
       </c>
       <c r="D358" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B359">
-        <v>21.011780000000002</v>
+        <v>-77.036370000000005</v>
       </c>
       <c r="C359">
-        <v>52.229770000000002</v>
+        <v>38.895110000000003</v>
       </c>
       <c r="D359" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B360">
-        <v>-77.036370000000005</v>
+        <v>174.77556999999999</v>
       </c>
       <c r="C360">
-        <v>38.895110000000003</v>
+        <v>-41.286639999999998</v>
       </c>
       <c r="D360" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B361">
-        <v>174.77556999999999</v>
+        <v>-68.933539999999994</v>
       </c>
       <c r="C361">
-        <v>-41.286639999999998</v>
+        <v>12.1084</v>
       </c>
       <c r="D361" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B362">
-        <v>-68.933539999999994</v>
+        <v>17.08323</v>
       </c>
       <c r="C362">
-        <v>12.1084</v>
+        <v>-22.55941</v>
       </c>
       <c r="D362" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B363">
-        <v>17.08323</v>
+        <v>114.26667</v>
       </c>
       <c r="C363">
-        <v>-22.55941</v>
+        <v>30.58333</v>
       </c>
       <c r="D363" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B364">
-        <v>114.26667</v>
+        <v>108.92861000000001</v>
       </c>
       <c r="C364">
-        <v>30.58333</v>
+        <v>34.258330000000001</v>
       </c>
       <c r="D364" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B365">
-        <v>108.92861000000001</v>
+        <v>-5.2767400000000002</v>
       </c>
       <c r="C365">
-        <v>34.258330000000001</v>
+        <v>6.8205499999999999</v>
       </c>
       <c r="D365" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B366">
-        <v>-5.2767400000000002</v>
+        <v>96.156109999999998</v>
       </c>
       <c r="C366">
-        <v>6.8205499999999999</v>
+        <v>16.80528</v>
       </c>
       <c r="D366" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B367">
-        <v>96.156109999999998</v>
+        <v>11.51667</v>
       </c>
       <c r="C367">
-        <v>16.80528</v>
+        <v>3.8666700000000001</v>
       </c>
       <c r="D367" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B368">
-        <v>11.51667</v>
+        <v>60.612200000000001</v>
       </c>
       <c r="C368">
-        <v>3.8666700000000001</v>
+        <v>56.851900000000001</v>
       </c>
       <c r="D368" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B369">
-        <v>60.612200000000001</v>
+        <v>44.51361</v>
       </c>
       <c r="C369">
-        <v>56.851900000000001</v>
+        <v>40.181109999999997</v>
       </c>
       <c r="D369" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B370">
-        <v>44.51361</v>
+        <v>139.65</v>
       </c>
       <c r="C370">
-        <v>40.181109999999997</v>
+        <v>35.433329999999998</v>
       </c>
       <c r="D370" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B371">
-        <v>139.65</v>
+        <v>15.977980000000001</v>
       </c>
       <c r="C371">
-        <v>35.433329999999998</v>
+        <v>45.814439999999998</v>
       </c>
       <c r="D371" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>578</v>
-      </c>
-      <c r="B372">
-        <v>15.977980000000001</v>
-      </c>
-      <c r="C372">
-        <v>45.814439999999998</v>
-      </c>
-      <c r="D372" t="s">
         <v>579</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>